--- a/Dashboards/SPEEDY.xlsx
+++ b/Dashboards/SPEEDY.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -100,10 +100,13 @@
     <x:t>SorryBroIAmPro</x:t>
   </x:si>
   <x:si>
+    <x:t>DJ Pro Clan34</x:t>
+  </x:si>
+  <x:si>
     <x:t>youselves</x:t>
   </x:si>
   <x:si>
-    <x:t>DJ Pro Clan34</x:t>
+    <x:t>DRK_ev1l</x:t>
   </x:si>
   <x:si>
     <x:t>Noob Equals Pro</x:t>
@@ -172,13 +175,10 @@
     <x:t>Indian</x:t>
   </x:si>
   <x:si>
-    <x:t>DRK_ev1l</x:t>
-  </x:si>
-  <x:si>
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>5,2 (3382/650)</x:t>
+    <x:t>5,2 (3382/652)</x:t>
   </x:si>
   <x:si>
     <x:t>- (/)</x:t>
@@ -220,7 +220,7 @@
     <x:t>3,7 (97/26)</x:t>
   </x:si>
   <x:si>
-    <x:t>6,3 (145/23)</x:t>
+    <x:t>5,8 (145/25)</x:t>
   </x:si>
   <x:si>
     <x:t>4,9 (44/9)</x:t>
@@ -238,7 +238,7 @@
     <x:t>1,0 (1/0)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,3 (759/336)</x:t>
+    <x:t>2,2 (763/340)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (10/10)</x:t>
@@ -274,7 +274,7 @@
     <x:t>2,5 (117/47)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,6 (239/66)</x:t>
+    <x:t>3,5 (243/70)</x:t>
   </x:si>
   <x:si>
     <x:t>2,2 (618/280)</x:t>
@@ -328,7 +328,7 @@
     <x:t>3,7 (11/3)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (1251/606)</x:t>
+    <x:t>2,1 (1274/612)</x:t>
   </x:si>
   <x:si>
     <x:t>2,6 (121/47)</x:t>
@@ -364,10 +364,10 @@
     <x:t>1,8 (84/46)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,9 (220/116)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (4074/2006)</x:t>
+    <x:t>2,0 (243/122)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (4163/2052)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (198/110)</x:t>
@@ -403,7 +403,13 @@
     <x:t>2,2 (1513/697)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,0 (1297/648)</x:t>
+    <x:t>1,9 (89/46)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (10/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (1339/672)</x:t>
   </x:si>
   <x:si>
     <x:t>1,9 (109/58)</x:t>
@@ -439,7 +445,7 @@
     <x:t>2,1 (63/30)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,0 (56/28)</x:t>
+    <x:t>1,9 (98/52)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (161/88)</x:t>
@@ -559,7 +565,7 @@
     <x:t>1,6 (29/18)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (778/518)</x:t>
+    <x:t>1,5 (795/533)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (147/84)</x:t>
@@ -592,7 +598,10 @@
     <x:t>1,4 (34/24)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,3 (1528/1143)</x:t>
+    <x:t>1,1 (17/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (1580/1179)</x:t>
   </x:si>
   <x:si>
     <x:t>1,6 (472/296)</x:t>
@@ -610,10 +619,10 @@
     <x:t>1,1 (150/131)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,3 (113/88)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (875/667)</x:t>
+    <x:t>1,3 (165/124)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (912/704)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (105/107)</x:t>
@@ -643,10 +652,10 @@
     <x:t>1,1 (71/66)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (97/63)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (524/733)</x:t>
+    <x:t>1,3 (134/100)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (552/766)</x:t>
   </x:si>
   <x:si>
     <x:t>0,4 (4/10)</x:t>
@@ -679,7 +688,10 @@
     <x:t>0,7 (100/134)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,7 (281/397)</x:t>
+    <x:t>0,8 (28/34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (282/399)</x:t>
   </x:si>
   <x:si>
     <x:t>0,8 (11/13)</x:t>
@@ -712,7 +724,7 @@
     <x:t>0,6 (55/90)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,9 (56/62)</x:t>
+    <x:t>0,9 (57/64)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1192,10 +1204,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>10761.6338685898</x:v>
+        <x:v>10762.4517147437</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1177832.15795834</x:v>
+        <x:v>1177842.78995834</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s"/>
       <x:c r="F2" s="16" t="n">
@@ -1235,7 +1247,7 @@
         <x:v>2863.41950000008</x:v>
       </x:c>
       <x:c r="R2" s="16" t="n">
-        <x:v>5675.98108333349</x:v>
+        <x:v>5686.61308333348</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1243,10 +1255,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>9714.37195238097</x:v>
+        <x:v>9911.0952916667</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>593354.598166662</x:v>
+        <x:v>594731.661541662</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s"/>
       <x:c r="F3" s="16" t="s"/>
@@ -1274,7 +1286,7 @@
         <x:v>5386.7943333335</x:v>
       </x:c>
       <x:c r="R3" s="16" t="n">
-        <x:v>3464.07374999998</x:v>
+        <x:v>4841.13712500012</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1282,10 +1294,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>9467.46990384619</x:v>
+        <x:v>9656.89102564107</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>388582.115791666</x:v>
+        <x:v>391044.590375</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s"/>
       <x:c r="F4" s="16" t="n">
@@ -1325,7 +1337,7 @@
         <x:v>42690.9705000005</x:v>
       </x:c>
       <x:c r="R4" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2462.47458333347</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1435,10 +1447,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>4363.67907211536</x:v>
+        <x:v>4402.62285416664</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>394943.949562499</x:v>
+        <x:v>395450.218729166</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
       <x:c r="F7" s="16" t="n">
@@ -1478,7 +1490,7 @@
         <x:v>3031.89800000004</x:v>
       </x:c>
       <x:c r="R7" s="16" t="n">
-        <x:v>6946.33191666671</x:v>
+        <x:v>7452.60108333337</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1486,10 +1498,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>4261.80970032052</x:v>
+        <x:v>4366.45369551283</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>761851.361770834</x:v>
+        <x:v>763211.733708334</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s"/>
       <x:c r="F8" s="16" t="n">
@@ -1529,7 +1541,7 @@
         <x:v>1490.87383333337</x:v>
       </x:c>
       <x:c r="R8" s="16" t="n">
-        <x:v>1611.19166666665</x:v>
+        <x:v>2971.56360416673</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1588,10 +1600,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>2789.75601923076</x:v>
+        <x:v>2794.53046794871</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>116806.140979167</x:v>
+        <x:v>116868.2088125</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s"/>
       <x:c r="F10" s="16" t="n">
@@ -1631,7 +1643,7 @@
         <x:v>3192.4485</x:v>
       </x:c>
       <x:c r="R10" s="16" t="n">
-        <x:v>9041.14658333323</x:v>
+        <x:v>9103.21441666657</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
@@ -1639,10 +1651,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>2691.23145833333</x:v>
+        <x:v>2721.80454166666</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>162825.4383125</x:v>
+        <x:v>163222.888395833</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s"/>
       <x:c r="F11" s="16" t="n">
@@ -1682,7 +1694,7 @@
         <x:v>1099.22350000002</x:v>
       </x:c>
       <x:c r="R11" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>397.45008333333</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -1690,10 +1702,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>2233.73844871796</x:v>
+        <x:v>2305.75047756411</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>192929.871062499</x:v>
+        <x:v>193866.027437499</x:v>
       </x:c>
       <x:c r="E12" s="16" t="s"/>
       <x:c r="F12" s="16" t="n">
@@ -1733,7 +1745,7 @@
         <x:v>7798.18283333338</x:v>
       </x:c>
       <x:c r="R12" s="16" t="n">
-        <x:v>2016.44699999999</x:v>
+        <x:v>2952.60337499998</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
@@ -1850,10 +1862,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>1553.98159775641</x:v>
+        <x:v>1635.84122916667</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>182467.6201875</x:v>
+        <x:v>183531.795395833</x:v>
       </x:c>
       <x:c r="E15" s="16" t="s"/>
       <x:c r="F15" s="16" t="n">
@@ -1893,7 +1905,7 @@
         <x:v>2981.70187499994</x:v>
       </x:c>
       <x:c r="R15" s="16" t="n">
-        <x:v>5.26449999999022</x:v>
+        <x:v>1069.43970833338</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
@@ -1901,96 +1913,96 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>1051.75342916667</x:v>
+        <x:v>1083.94679487178</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>124676.660062499</x:v>
+        <x:v>73194.1143333325</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s"/>
-      <x:c r="F16" s="16" t="s"/>
-      <x:c r="G16" s="16" t="s"/>
+      <x:c r="F16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G16" s="16" t="n">
+        <x:v>639.945166666657</x:v>
+      </x:c>
       <x:c r="H16" s="16" t="n">
-        <x:v>659.753458333333</x:v>
+        <x:v>1366.82620833332</x:v>
       </x:c>
       <x:c r="I16" s="16" t="n">
-        <x:v>2821.74452083332</x:v>
+        <x:v>334.355500000012</x:v>
       </x:c>
       <x:c r="J16" s="16" t="n">
-        <x:v>219.899999999994</x:v>
+        <x:v>4738.08908333331</x:v>
       </x:c>
       <x:c r="K16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>468.934166666659</x:v>
       </x:c>
       <x:c r="L16" s="16" t="n">
-        <x:v>1557.36916666669</x:v>
-      </x:c>
-      <x:c r="M16" s="16" t="s"/>
-      <x:c r="N16" s="16" t="s"/>
-      <x:c r="O16" s="16" t="s"/>
-      <x:c r="P16" s="16" t="s"/>
-      <x:c r="Q16" s="16" t="s"/>
-      <x:c r="R16" s="16" t="s"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M16" s="16" t="n">
+        <x:v>365.705458333337</x:v>
+      </x:c>
+      <x:c r="N16" s="16" t="n">
+        <x:v>666.306833333321</x:v>
+      </x:c>
+      <x:c r="O16" s="16" t="n">
+        <x:v>347.165833333333</x:v>
+      </x:c>
+      <x:c r="P16" s="16" t="n">
+        <x:v>160.905333333314</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>1972.81749999998</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
+        <x:v>3030.25724999995</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>1047.73535256409</x:v>
+        <x:v>1051.75342916667</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>72723.3655833325</x:v>
+        <x:v>124676.660062499</x:v>
       </x:c>
       <x:c r="E17" s="16" t="s"/>
-      <x:c r="F17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G17" s="16" t="n">
-        <x:v>639.945166666657</x:v>
-      </x:c>
+      <x:c r="F17" s="16" t="s"/>
+      <x:c r="G17" s="16" t="s"/>
       <x:c r="H17" s="16" t="n">
-        <x:v>1366.82620833332</x:v>
+        <x:v>659.753458333333</x:v>
       </x:c>
       <x:c r="I17" s="16" t="n">
-        <x:v>334.355500000012</x:v>
+        <x:v>2821.74452083332</x:v>
       </x:c>
       <x:c r="J17" s="16" t="n">
-        <x:v>4738.08908333331</x:v>
+        <x:v>219.899999999994</x:v>
       </x:c>
       <x:c r="K17" s="16" t="n">
-        <x:v>468.934166666659</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M17" s="16" t="n">
-        <x:v>365.705458333337</x:v>
-      </x:c>
-      <x:c r="N17" s="16" t="n">
-        <x:v>666.306833333321</x:v>
-      </x:c>
-      <x:c r="O17" s="16" t="n">
-        <x:v>347.165833333333</x:v>
-      </x:c>
-      <x:c r="P17" s="16" t="n">
-        <x:v>160.905333333314</x:v>
-      </x:c>
-      <x:c r="Q17" s="16" t="n">
-        <x:v>1972.81749999998</x:v>
-      </x:c>
-      <x:c r="R17" s="16" t="n">
-        <x:v>2559.50849999997</x:v>
-      </x:c>
+        <x:v>1557.36916666669</x:v>
+      </x:c>
+      <x:c r="M17" s="16" t="s"/>
+      <x:c r="N17" s="16" t="s"/>
+      <x:c r="O17" s="16" t="s"/>
+      <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>231.412488095239</x:v>
+        <x:v>371.508833333326</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>92122.8818958333</x:v>
+        <x:v>78372.8014374998</x:v>
       </x:c>
       <x:c r="E18" s="16" t="s"/>
       <x:c r="F18" s="16" t="s"/>
@@ -1999,26 +2011,14 @@
       <x:c r="I18" s="16" t="s"/>
       <x:c r="J18" s="16" t="s"/>
       <x:c r="K18" s="16" t="s"/>
-      <x:c r="L18" s="16" t="n">
-        <x:v>104.931333333341</x:v>
-      </x:c>
-      <x:c r="M18" s="16" t="n">
-        <x:v>1013.58125</x:v>
-      </x:c>
-      <x:c r="N18" s="16" t="n">
-        <x:v>438.124416666673</x:v>
-      </x:c>
-      <x:c r="O18" s="16" t="n">
-        <x:v>62.4796666666662</x:v>
-      </x:c>
-      <x:c r="P18" s="16" t="n">
-        <x:v>0.770749999996042</x:v>
-      </x:c>
-      <x:c r="Q18" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="L18" s="16" t="s"/>
+      <x:c r="M18" s="16" t="s"/>
+      <x:c r="N18" s="16" t="s"/>
+      <x:c r="O18" s="16" t="s"/>
+      <x:c r="P18" s="16" t="s"/>
+      <x:c r="Q18" s="16" t="s"/>
       <x:c r="R18" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>371.508833333326</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:146">
@@ -2026,70 +2026,84 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="15" t="n">
-        <x:v>1.43462121212162</x:v>
+        <x:v>231.412488095239</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>127006.44025</x:v>
+        <x:v>92122.8818958333</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s"/>
-      <x:c r="F19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G19" s="16" t="n">
-        <x:v>15.7808333333378</x:v>
-      </x:c>
-      <x:c r="H19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="F19" s="16" t="s"/>
+      <x:c r="G19" s="16" t="s"/>
+      <x:c r="H19" s="16" t="s"/>
+      <x:c r="I19" s="16" t="s"/>
+      <x:c r="J19" s="16" t="s"/>
+      <x:c r="K19" s="16" t="s"/>
       <x:c r="L19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>104.931333333341</x:v>
       </x:c>
       <x:c r="M19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1013.58125</x:v>
       </x:c>
       <x:c r="N19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>438.124416666673</x:v>
       </x:c>
       <x:c r="O19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>62.4796666666662</x:v>
       </x:c>
       <x:c r="P19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q19" s="16" t="s"/>
-      <x:c r="R19" s="16" t="s"/>
+        <x:v>0.770749999996042</x:v>
+      </x:c>
+      <x:c r="Q19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R19" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="1:146">
       <x:c r="B20" s="14" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>1.43462121212162</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>182675.8245</x:v>
+        <x:v>127006.44025</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s"/>
-      <x:c r="F20" s="16" t="s"/>
-      <x:c r="G20" s="16" t="s"/>
-      <x:c r="H20" s="16" t="s"/>
-      <x:c r="I20" s="16" t="s"/>
-      <x:c r="J20" s="16" t="s"/>
-      <x:c r="K20" s="16" t="s"/>
-      <x:c r="L20" s="16" t="s"/>
-      <x:c r="M20" s="16" t="s"/>
-      <x:c r="N20" s="16" t="s"/>
-      <x:c r="O20" s="16" t="s"/>
-      <x:c r="P20" s="16" t="s"/>
+      <x:c r="F20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G20" s="16" t="n">
+        <x:v>15.7808333333378</x:v>
+      </x:c>
+      <x:c r="H20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P20" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="Q20" s="16" t="s"/>
       <x:c r="R20" s="16" t="s"/>
     </x:row>
@@ -2101,7 +2115,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>53082.4165416666</x:v>
+        <x:v>182675.8245</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
@@ -2126,7 +2140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>216153.218000001</x:v>
+        <x:v>53082.4165416666</x:v>
       </x:c>
       <x:c r="E22" s="16" t="s"/>
       <x:c r="F22" s="16" t="s"/>
@@ -2151,7 +2165,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>104116.007333333</x:v>
+        <x:v>216153.218000001</x:v>
       </x:c>
       <x:c r="E23" s="16" t="s"/>
       <x:c r="F23" s="16" t="s"/>
@@ -2176,18 +2190,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>410042.268645832</x:v>
+        <x:v>104116.007333333</x:v>
       </x:c>
       <x:c r="E24" s="16" t="s"/>
-      <x:c r="F24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="F24" s="16" t="s"/>
+      <x:c r="G24" s="16" t="s"/>
+      <x:c r="H24" s="16" t="s"/>
       <x:c r="I24" s="16" t="s"/>
       <x:c r="J24" s="16" t="s"/>
       <x:c r="K24" s="16" t="s"/>
@@ -2207,12 +2215,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>21277.7408333333</x:v>
+        <x:v>410042.268645832</x:v>
       </x:c>
       <x:c r="E25" s="16" t="s"/>
-      <x:c r="F25" s="16" t="s"/>
-      <x:c r="G25" s="16" t="s"/>
-      <x:c r="H25" s="16" t="s"/>
+      <x:c r="F25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I25" s="16" t="s"/>
       <x:c r="J25" s="16" t="s"/>
       <x:c r="K25" s="16" t="s"/>
@@ -2232,7 +2246,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>166374.405791667</x:v>
+        <x:v>21277.7408333333</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s"/>
       <x:c r="F26" s="16" t="s"/>
@@ -2257,7 +2271,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>179318.914833333</x:v>
+        <x:v>166374.405791667</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
@@ -2282,7 +2296,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>186457.391208333</x:v>
+        <x:v>179318.914833333</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s"/>
       <x:c r="F28" s="16" t="s"/>
@@ -2307,14 +2321,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>206763.734895833</x:v>
+        <x:v>186457.391208333</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s"/>
       <x:c r="F29" s="16" t="s"/>
       <x:c r="G29" s="16" t="s"/>
-      <x:c r="H29" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="H29" s="16" t="s"/>
       <x:c r="I29" s="16" t="s"/>
       <x:c r="J29" s="16" t="s"/>
       <x:c r="K29" s="16" t="s"/>
@@ -2334,12 +2346,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>71871.0044583331</x:v>
+        <x:v>206763.734895833</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s"/>
       <x:c r="F30" s="16" t="s"/>
       <x:c r="G30" s="16" t="s"/>
-      <x:c r="H30" s="16" t="s"/>
+      <x:c r="H30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I30" s="16" t="s"/>
       <x:c r="J30" s="16" t="s"/>
       <x:c r="K30" s="16" t="s"/>
@@ -2359,7 +2373,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>56832.4495208333</x:v>
+        <x:v>71871.0044583331</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s"/>
       <x:c r="F31" s="16" t="s"/>
@@ -2384,7 +2398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>166757.19775</x:v>
+        <x:v>56832.4495208333</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -2409,7 +2423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>37193.5816458334</x:v>
+        <x:v>166757.19775</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -2434,7 +2448,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>71165.5647083332</x:v>
+        <x:v>37193.5816458334</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
@@ -2459,7 +2473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>84794.8241666663</x:v>
+        <x:v>71165.5647083332</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s"/>
       <x:c r="F35" s="16" t="s"/>
@@ -2484,7 +2498,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>84128.5754583333</x:v>
+        <x:v>84794.8241666663</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s"/>
       <x:c r="F36" s="16" t="s"/>
@@ -2509,7 +2523,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>78403.6077083333</x:v>
+        <x:v>84128.5754583333</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s"/>
       <x:c r="F37" s="16" t="s"/>
@@ -2534,7 +2548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>104527.2548125</x:v>
+        <x:v>78403.6077083333</x:v>
       </x:c>
       <x:c r="E38" s="16" t="s"/>
       <x:c r="F38" s="16" t="s"/>
@@ -2559,7 +2573,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>294186.014854166</x:v>
+        <x:v>104527.2548125</x:v>
       </x:c>
       <x:c r="E39" s="16" t="s"/>
       <x:c r="F39" s="16" t="s"/>
@@ -2568,9 +2582,7 @@
       <x:c r="I39" s="16" t="s"/>
       <x:c r="J39" s="16" t="s"/>
       <x:c r="K39" s="16" t="s"/>
-      <x:c r="L39" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="L39" s="16" t="s"/>
       <x:c r="M39" s="16" t="s"/>
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
@@ -2586,7 +2598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>78001.2926041665</x:v>
+        <x:v>294186.014854166</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -2595,15 +2607,15 @@
       <x:c r="I40" s="16" t="s"/>
       <x:c r="J40" s="16" t="s"/>
       <x:c r="K40" s="16" t="s"/>
-      <x:c r="L40" s="16" t="s"/>
+      <x:c r="L40" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="M40" s="16" t="s"/>
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
       <x:c r="P40" s="16" t="s"/>
       <x:c r="Q40" s="16" t="s"/>
-      <x:c r="R40" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="R40" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -2741,7 +2753,7 @@
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
         <x:v>58</x:v>
@@ -3036,515 +3048,515 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="M9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P9" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="Q9" s="19" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="G9" s="19" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="H9" s="19" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="I9" s="19" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="J9" s="19" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="K9" s="19" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="L9" s="19" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="M9" s="19" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="N9" s="19" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="O9" s="19" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="P9" s="19" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="Q9" s="19" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D10" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E10" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F10" s="19" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G10" s="19" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="H10" s="19" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I10" s="19" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="J10" s="19" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="K10" s="19" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L10" s="19" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="M10" s="19" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="N10" s="19" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="O10" s="19" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="P10" s="19" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="D10" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E10" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F10" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G10" s="19" t="s">
+      <x:c r="Q10" s="19" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="H10" s="19" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="I10" s="19" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="J10" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K10" s="19" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="L10" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="M10" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="N10" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="O10" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="P10" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="Q10" s="19" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D11" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E11" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F11" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G11" s="19" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="H11" s="19" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="I11" s="19" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D11" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E11" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F11" s="19" t="s">
+      <x:c r="J11" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="K11" s="19" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="G11" s="19" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="H11" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I11" s="19" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="J11" s="19" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="K11" s="19" t="s">
-        <x:v>141</x:v>
-      </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D12" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E12" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F12" s="19" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="G12" s="19" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H12" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I12" s="19" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="J12" s="19" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="K12" s="19" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="L12" s="19" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="M12" s="19" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="N12" s="19" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="D12" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E12" s="19" t="s">
+      <x:c r="O12" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="P12" s="19" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="F12" s="19" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="G12" s="19" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="H12" s="19" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="I12" s="19" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="J12" s="19" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="K12" s="19" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="L12" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="M12" s="19" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="N12" s="19" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="O12" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="P12" s="19" t="s">
-        <x:v>156</x:v>
-      </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D13" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E13" s="19" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F13" s="19" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G13" s="19" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="H13" s="19" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I13" s="19" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="J13" s="19" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K13" s="19" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="L13" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M13" s="19" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="N13" s="19" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="O13" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="P13" s="19" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="D13" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E13" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F13" s="19" t="s">
+      <x:c r="Q13" s="19" t="s">
         <x:v>159</x:v>
-      </x:c>
-      <x:c r="G13" s="19" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="H13" s="19" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="I13" s="19" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="J13" s="19" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="K13" s="19" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="L13" s="19" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="M13" s="19" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="N13" s="19" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="O13" s="19" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="P13" s="19" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="Q13" s="19" t="s">
-        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D14" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E14" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F14" s="19" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="G14" s="19" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="H14" s="19" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="I14" s="19" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="J14" s="19" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="K14" s="19" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="L14" s="19" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="M14" s="19" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="N14" s="19" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="O14" s="19" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="P14" s="19" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="D14" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E14" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F14" s="19" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="G14" s="19" t="s">
+      <x:c r="Q14" s="19" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="H14" s="19" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="I14" s="19" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="J14" s="19" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K14" s="19" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="L14" s="19" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="M14" s="19" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="N14" s="19" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="O14" s="19" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="P14" s="19" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="Q14" s="19" t="s">
-        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D15" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E15" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F15" s="19" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="G15" s="19" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="H15" s="19" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I15" s="19" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J15" s="19" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="K15" s="19" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="L15" s="19" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="M15" s="19" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="N15" s="19" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="O15" s="19" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="D15" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E15" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F15" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G15" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H15" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I15" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J15" s="19" t="s">
+      <x:c r="P15" s="19" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="K15" s="19" t="s">
+      <x:c r="Q15" s="19" t="s">
         <x:v>183</x:v>
-      </x:c>
-      <x:c r="L15" s="19" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="M15" s="19" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="N15" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="O15" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="P15" s="19" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="Q15" s="19" t="s">
-        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D16" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E16" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F16" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G16" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H16" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I16" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J16" s="19" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="K16" s="19" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="L16" s="19" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="M16" s="19" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="D16" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E16" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F16" s="19" t="s">
+      <x:c r="N16" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O16" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P16" s="19" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="G16" s="19" t="s">
+      <x:c r="Q16" s="19" t="s">
         <x:v>190</x:v>
-      </x:c>
-      <x:c r="H16" s="19" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="I16" s="19" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="J16" s="19" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="K16" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L16" s="19" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="M16" s="19" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="N16" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="O16" s="19" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="P16" s="19" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="Q16" s="19" t="s">
-        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D17" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E17" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F17" s="19" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="G17" s="19" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="H17" s="19" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="I17" s="19" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="J17" s="19" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="K17" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="L17" s="19" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="M17" s="19" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="N17" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="O17" s="19" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="D17" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E17" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F17" s="19" t="s">
+      <x:c r="P17" s="19" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="G17" s="19" t="s">
+      <x:c r="Q17" s="19" t="s">
         <x:v>201</x:v>
-      </x:c>
-      <x:c r="H17" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I17" s="19" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="J17" s="19" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="K17" s="19" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="L17" s="19" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="M17" s="19" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="N17" s="19" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="O17" s="19" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="P17" s="19" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="Q17" s="19" t="s">
-        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D18" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E18" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F18" s="19" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="G18" s="19" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="H18" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I18" s="19" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="J18" s="19" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="K18" s="19" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="L18" s="19" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="M18" s="19" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="N18" s="19" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="D18" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E18" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F18" s="19" t="s">
+      <x:c r="O18" s="19" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="G18" s="19" t="s">
+      <x:c r="P18" s="19" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="H18" s="19" t="s">
+      <x:c r="Q18" s="19" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="I18" s="19" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="J18" s="19" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="K18" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L18" s="19" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="M18" s="19" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="N18" s="19" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="O18" s="19" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="P18" s="19" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="Q18" s="19" t="s">
-        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
       <x:c r="B19" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>45</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
         <x:v>44</x:v>
@@ -3553,45 +3565,45 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
         <x:v>45</x:v>
@@ -3600,13 +3612,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
         <x:v>44</x:v>
@@ -3791,46 +3803,46 @@
     </x:row>
     <x:row r="24" spans="1:36">
       <x:c r="B24" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
         <x:v>44</x:v>
@@ -3841,46 +3853,46 @@
     </x:row>
     <x:row r="25" spans="1:36">
       <x:c r="B25" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>45</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
         <x:v>44</x:v>
@@ -4056,7 +4068,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
         <x:v>44</x:v>
@@ -4106,7 +4118,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
         <x:v>44</x:v>
@@ -4568,7 +4580,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
         <x:v>44</x:v>
@@ -4618,7 +4630,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
         <x:v>44</x:v>
@@ -4636,7 +4648,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
